--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
@@ -6,45 +6,297 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Modelos de Requisição Simplific" sheetId="1" r:id="rId3"/>
+    <sheet name="Receção de Faturas" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Nº Modelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Região</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÁrea Funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro Responsabilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teste</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
+  <si>
+    <t xml:space="preserve">Nº</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de Receção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fornecedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Núm. Doc. Fornecedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Doc. Fornecedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Núm. Encomenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Núm. Encomenda Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor Encomenda Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade Encomenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade Recebida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor Recebido não Contabilizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cód. Região</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cód. Área Funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cód. Centro Responsabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cód. Localização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Núm. Acordo Fornecedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destinatario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Àrea Pendente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Última Interação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTE181800011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rececao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012GAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTE1800021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011AUDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTE1800016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uhuhuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTE1800006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTE00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devolvido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
     <t xml:space="preserve">01</t>
   </si>
   <si>
-    <t xml:space="preserve">010CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQSIMP0037</t>
+    <t xml:space="preserve">2901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áreas Apoio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300000-COIMBRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1800069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NotaCredito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
 </sst>
 </file>
@@ -110,39 +362,737 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4"/>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12"/>
+      <c r="W12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
@@ -6,51 +6,48 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Pedidos de Aquisição" sheetId="1" r:id="rId3"/>
+    <sheet name="Telemóveis Cartões" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Nº</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Nº Cartão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo Serviço</t>
   </si>
   <si>
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Nome Processo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestor Processo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor Preço Base</t>
+    <t xml:space="preserve">Conta SUCH</t>
   </si>
   <si>
     <t xml:space="preserve">Código Região</t>
   </si>
   <si>
-    <t xml:space="preserve">Codigo Área Funcional</t>
+    <t xml:space="preserve">Código Área Funcional</t>
   </si>
   <si>
     <t xml:space="preserve">Código Centro Responsabilidade</t>
   </si>
   <si>
-    <t xml:space="preserve">PS00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teste nunorato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">111111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por Activar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
@@ -59,13 +56,25 @@
     <t xml:space="preserve">018SI</t>
   </si>
   <si>
-    <t xml:space="preserve">PS00002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS00004</t>
+    <t xml:space="preserve">456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7777777777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">969999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1338340476</t>
   </si>
 </sst>
 </file>
@@ -137,21 +146,20 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
         <v>11</v>
       </c>
@@ -161,37 +169,52 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
@@ -6,75 +6,48 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Telemóveis Cartões" sheetId="1" r:id="rId3"/>
+    <sheet name="Pedidos de Aprovação" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">Nº Cartão</t>
+    <t xml:space="preserve">Nº</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo Serviço</t>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSolicitado Por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor</t>
   </si>
   <si>
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Conta SUCH</t>
+    <t xml:space="preserve">Nivel</t>
   </si>
   <si>
-    <t xml:space="preserve">Código Região</t>
+    <t xml:space="preserve">Folha de Horas - Validar</t>
   </si>
   <si>
-    <t xml:space="preserve">Código Área Funcional</t>
+    <t xml:space="preserve">FH00072</t>
   </si>
   <si>
-    <t xml:space="preserve">Código Centro Responsabilidade</t>
+    <t xml:space="preserve">ARomao@such.pt</t>
   </si>
   <si>
-    <t xml:space="preserve">111111111</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por Activar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123123123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">018SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7777777777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">969999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1338340476</t>
+    <t xml:space="preserve">Pendente</t>
   </si>
 </sst>
 </file>
@@ -148,72 +121,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
@@ -6,54 +6,162 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Unidades Armazenamento" sheetId="1" r:id="rId3"/>
+    <sheet name="Movimentos de Produtos" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">Nº de Produto</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">Nº</t>
   </si>
   <si>
     <t xml:space="preserve">Descrição</t>
   </si>
   <si>
-    <t xml:space="preserve">Cód. Localização</t>
+    <t xml:space="preserve">Lista De Materiais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade Medida Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nº Prateleira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço Unitário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo Unitário</t>
   </si>
   <si>
     <t xml:space="preserve">Inventário</t>
   </si>
   <si>
-    <t xml:space="preserve">Nº Prateleiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloqueado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armazém Principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor em Armazem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nº Fornecedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cód. Produto Fornecedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cód. Unidade Medida Produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custo Unitário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Último Custo Directo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preço de Venda</t>
+    <t xml:space="preserve">Valor Energético</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor Energético 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteínas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteínas 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glícidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glícidos 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lípidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lípidos 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibra Alimentar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibra Alimentar 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade Unidade Medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gramas Por Quantidade Unidade Medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo Refeição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição Refeição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ácidos Gordos Saturados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Açúcares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crustáceos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amendoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frutas De Casca Rija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostarda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sementes De Sésamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dióxido De Enxofre E Súlfitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tremoço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moluscos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamina A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamina D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colesterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sódio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potácio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edível</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcool</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -62,7 +170,16 @@
     <t xml:space="preserve">DESCRIÇÃO  PRODUTO 1</t>
   </si>
   <si>
-    <t xml:space="preserve">300000-COIMBRA</t>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO  PRODUTO 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO  PRODUTO 3</t>
   </si>
 </sst>
 </file>
@@ -155,44 +272,282 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">DESCRIÇÃO  PRODUTO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -388,9 +391,13 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
       <c r="D2"/>
-      <c r="E2"/>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -408,24 +415,54 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
-      <c r="W2"/>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
+      <c r="AA2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>52</v>
+      </c>
       <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
@@ -439,14 +476,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -464,24 +505,54 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-      <c r="W3"/>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
+      <c r="AA3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>52</v>
+      </c>
       <c r="AO3"/>
       <c r="AP3"/>
       <c r="AQ3"/>
@@ -495,14 +566,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -520,24 +595,54 @@
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
-      <c r="W4"/>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
+      <c r="AA4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>52</v>
+      </c>
       <c r="AO4"/>
       <c r="AP4"/>
       <c r="AQ4"/>

--- a/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
+++ b/Hydra.Such.Portal/Hydra.Such.Portal/wwwroot/Upload/temp/ARomao_such_pt.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -164,25 +164,31 @@
     <t xml:space="preserve">Alcool</t>
   </si>
   <si>
+    <t xml:space="preserve">PROD000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROD000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCRIÇÃO  PRODUTO 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIÇÃO  PRODUTO 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIÇÃO  PRODUTO 3</t>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pequenos Almoços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimento</t>
   </si>
 </sst>
 </file>
@@ -388,16 +394,10 @@
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="D2"/>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
+      <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -415,54 +415,24 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>52</v>
-      </c>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
@@ -476,183 +446,133 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
       <c r="J3"/>
-      <c r="K3"/>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
       <c r="L3"/>
-      <c r="M3"/>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
       <c r="N3"/>
-      <c r="O3"/>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
       <c r="P3"/>
-      <c r="Q3"/>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3"/>
+      <c r="X3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AB3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AC3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AE3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AH3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AI3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AJ3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AL3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AM3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AN3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO3"/>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="AU3"/>
-      <c r="AV3"/>
-      <c r="AW3"/>
+        <v>57</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>52</v>
+      </c>
       <c r="AX3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4" t="s">
-        <v>52</v>
-      </c>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO4"/>
-      <c r="AP4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="AU4"/>
-      <c r="AV4"/>
-      <c r="AW4"/>
-      <c r="AX4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
